--- a/src/main/webapp/UploadSource/供应商成功导入列表.xlsx
+++ b/src/main/webapp/UploadSource/供应商成功导入列表.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>序列号</t>
   </si>
@@ -33,24 +33,6 @@
   </si>
   <si>
     <t>主营业务</t>
-  </si>
-  <si>
-    <t>神舟笔记本</t>
-  </si>
-  <si>
-    <t>上市</t>
-  </si>
-  <si>
-    <t>北京</t>
-  </si>
-  <si>
-    <t>老王1</t>
-  </si>
-  <si>
-    <t>18382949075</t>
-  </si>
-  <si>
-    <t>组装台式机，批量售笔记本</t>
   </si>
 </sst>
 </file>
@@ -145,29 +127,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="B3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
